--- a/autoApiTest_shop/data/mtxshop_data.xlsx
+++ b/autoApiTest_shop/data/mtxshop_data.xlsx
@@ -1016,13 +1016,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="17.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1086,14 +1087,14 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>3673</v>
+      <c r="B5">
+        <v>600</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
       </c>
       <c r="D5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1101,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>20105</v>
       </c>
       <c r="C6">
         <v>1</v>
